--- a/Mapping/unimelb_creswick_url.xlsx
+++ b/Mapping/unimelb_creswick_url.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
-    <t>Building name</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>url</t>
+    <t>building_name</t>
+  </si>
+  <si>
+    <t>building_no</t>
+  </si>
+  <si>
+    <t>website:map</t>
   </si>
   <si>
     <t>CRESWICK - TREMEARNE HOUSE</t>
@@ -139,61 +139,61 @@
     <t>754</t>
   </si>
   <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 710 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 712 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 713 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 714 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 715 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 716 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 719 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 721 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 723 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 726 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 729 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 730 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 731 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 733 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 734 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 735 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 737 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 744 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi= 754 </t>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=710</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=712</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=713</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=714</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=715</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=716</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=719</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=721</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=723</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=726</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=729</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=730</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=731</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=733</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=734</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=735</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=737</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=744</t>
+  </si>
+  <si>
+    <t>https://use.mazemap.com/?campusid=219&amp;sharepoitype=identifier&amp;sharepoi=754</t>
   </si>
 </sst>
 </file>
